--- a/covid19/data_covid19_hospital_by_time_2020-06-24.xlsx
+++ b/covid19/data_covid19_hospital_by_time_2020-06-24.xlsx
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="N35">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -6810,6 +6810,9 @@
         <v>44005</v>
       </c>
       <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
         <v>0</v>
       </c>
     </row>
